--- a/inst/results/data_contam/metals/summarised_levels_data_metaux_ww.xlsx
+++ b/inst/results/data_contam/metals/summarised_levels_data_metaux_ww.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,105 +361,176 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ESTUARY</t>
+          <t>PARAMETRE_LIBELLE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PARAMETRE_LIBELLE</t>
+          <t>First 5 years</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>median_ng_gww</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>median_1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>median_2</t>
+          <t>Last 5 years</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gironde</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>Cadmium</t>
         </is>
       </c>
+      <c r="B2">
+        <v>0.911</v>
+      </c>
       <c r="C2">
-        <v>2.407</v>
-      </c>
-      <c r="D2">
-        <v>772</v>
-      </c>
-      <c r="E2">
-        <v>240.7</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Loire</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cadmium</t>
-        </is>
+          <t>Cuivre</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>2.079</v>
       </c>
       <c r="C3">
-        <v>0.183</v>
-      </c>
-      <c r="D3">
-        <v>27.85</v>
-      </c>
-      <c r="E3">
-        <v>18.3</v>
+        <v>2.069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seine</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cadmium</t>
-        </is>
+          <t>Mercure</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.019</v>
       </c>
       <c r="C4">
-        <v>0.2595</v>
-      </c>
-      <c r="D4">
-        <v>67.84999999999999</v>
-      </c>
-      <c r="E4">
-        <v>25.95</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Plomb</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.5875</v>
+      </c>
+      <c r="C5">
+        <v>0.249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ESTUARY</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PARAMETRE_LIBELLE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>First 5 years</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Last 5 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Gironde</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cadmium</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>7.7195</v>
+      </c>
+      <c r="D2">
+        <v>2.407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cadmium</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0.2785</v>
+      </c>
+      <c r="D3">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cadmium</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0.6785</v>
+      </c>
+      <c r="D4">
+        <v>0.2595</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Cuivre</t>
         </is>
       </c>
       <c r="C5">
+        <v>4.491</v>
+      </c>
+      <c r="D5">
         <v>7.338000000000001</v>
       </c>
     </row>
@@ -474,6 +546,9 @@
         </is>
       </c>
       <c r="C6">
+        <v>1.517</v>
+      </c>
+      <c r="D6">
         <v>1.789</v>
       </c>
     </row>
@@ -489,6 +564,9 @@
         </is>
       </c>
       <c r="C7">
+        <v>1.774</v>
+      </c>
+      <c r="D7">
         <v>1.8015</v>
       </c>
     </row>
@@ -504,13 +582,10 @@
         </is>
       </c>
       <c r="C8">
+        <v>0.016</v>
+      </c>
+      <c r="D8">
         <v>0.018</v>
-      </c>
-      <c r="D8">
-        <v>3.2</v>
-      </c>
-      <c r="E8">
-        <v>3.6</v>
       </c>
     </row>
     <row r="9">
@@ -525,13 +600,10 @@
         </is>
       </c>
       <c r="C9">
+        <v>0.019</v>
+      </c>
+      <c r="D9">
         <v>0.025</v>
-      </c>
-      <c r="D9">
-        <v>3.8</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -546,13 +618,10 @@
         </is>
       </c>
       <c r="C10">
+        <v>0.0495</v>
+      </c>
+      <c r="D10">
         <v>0.038</v>
-      </c>
-      <c r="D10">
-        <v>9.9</v>
-      </c>
-      <c r="E10">
-        <v>7.6</v>
       </c>
     </row>
     <row r="11">
@@ -567,13 +636,10 @@
         </is>
       </c>
       <c r="C11">
+        <v>0.323</v>
+      </c>
+      <c r="D11">
         <v>0.384</v>
-      </c>
-      <c r="D11">
-        <v>21.53</v>
-      </c>
-      <c r="E11">
-        <v>25.6</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +654,10 @@
         </is>
       </c>
       <c r="C12">
+        <v>0.866</v>
+      </c>
+      <c r="D12">
         <v>0.205</v>
-      </c>
-      <c r="D12">
-        <v>57.73</v>
-      </c>
-      <c r="E12">
-        <v>13.67</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +672,10 @@
         </is>
       </c>
       <c r="C13">
+        <v>0.6335</v>
+      </c>
+      <c r="D13">
         <v>0.4725</v>
-      </c>
-      <c r="D13">
-        <v>42.23</v>
-      </c>
-      <c r="E13">
-        <v>31.5</v>
       </c>
     </row>
   </sheetData>
